--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\DemoClassAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אבי גברילוב\IdeaProjects\AutomationExercise_ShimiAndAvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6A20E-B642-458D-A885-B85508361194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE3A08-ECE0-43D7-9AB5-A151D46558B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emails" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>alex.jones@example.com</t>
+    <t>shimi.avi@gmail.com</t>
   </si>
   <si>
-    <t>samantha.smith@example.com</t>
+    <t>cabri.asher@qualitestgroup.com</t>
   </si>
   <si>
-    <t>michael.brown@example.com</t>
-  </si>
-  <si>
-    <t>jessica.davis@example.com</t>
-  </si>
-  <si>
-    <t>daniel.wilson@example.com</t>
+    <t>avi1616892@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -53,7 +47,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -61,7 +55,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,15 +81,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -396,33 +391,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:alex.jones@example.com" xr:uid="{AA7548E1-0E77-443F-B673-0A07068A968B}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:samantha.smith@example.com" xr:uid="{86473305-DA47-4C12-B486-47C9C41D3944}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:michael.brown@example.com" xr:uid="{9EFAB206-5D4A-4A02-BCBB-47E8B7105669}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:jessica.davis@example.com" xr:uid="{983160CD-5AA7-4F59-8095-4D12249A3F53}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:daniel.wilson@example.com" xr:uid="{EC53E284-FAE0-4DD6-A1BE-53EF38285BA1}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{574A33D6-AE3B-4E50-B64E-92E11917771D}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{966BF906-C6C7-465B-A119-22448C0AD9F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>